--- a/Stat reports/Reports/Templates/12-п.xlsx
+++ b/Stat reports/Reports/Templates/12-п.xlsx
@@ -3,14 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Статотчетность_дирекция\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C33FF0B-7F88-49D8-8434-C8032E1EE2EB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21375" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21375" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Главная" sheetId="1" r:id="rId1"/>
@@ -20,32 +14,32 @@
     <sheet name="Раздел 4" sheetId="5" r:id="rId5"/>
     <sheet name="Раздел 5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="122">
   <si>
-    <t>ГОСУДАРСТВЕННАЯ СТАТИСТИЧЕСКАЯ ОТЧЕТНОСТЬ</t>
-  </si>
-  <si>
-    <t>КОНФИДЕНЦИАЛЬНОСТЬ ГАРАНТИРУЕТСЯ ПОЛУЧАТЕЛЕМ ИНФОРМАЦИИ</t>
-  </si>
-  <si>
-    <t>Представление искаженных данных государственной статистической отчетности, несвоевременное представление или непредставление такой отчетности влекут применение мер административной или уголовной ответственности в порядке, установленном законодательством Республики Беларусь</t>
-  </si>
-  <si>
-    <t>Представляют респонденты</t>
-  </si>
-  <si>
-    <t>Срок представления</t>
-  </si>
-  <si>
-    <t>12-п</t>
-  </si>
-  <si>
-    <t>юридические лица (кроме микроорганизаций, крестьянских
+    <t xml:space="preserve">ГОСУДАРСТВЕННАЯ СТАТИСТИЧЕСКАЯ ОТЧЕТНОСТЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОНФИДЕНЦИАЛЬНОСТЬ ГАРАНТИРУЕТСЯ ПОЛУЧАТЕЛЕМ ИНФОРМАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представление искаженных данных государственной статистической отчетности, несвоевременное представление или непредставление такой отчетности влекут применение мер административной или уголовной ответственности в порядке, установленном законодательством Республики Беларусь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представляют респонденты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срок представления</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">юридические лица (кроме микроорганизаций, крестьянских
 (фермерских) хозяйств), обособленные подразделения
 юридических лиц, видами экономической деятельности которых
 являются: горнодобывающая промышленность; обрабатывающая
@@ -58,100 +52,100 @@
 управлению области (города Минска)</t>
   </si>
   <si>
-    <t>4-го числа после отчетного периода,
+    <t xml:space="preserve">4-го числа после отчетного периода,
 гр.11 - 16 разд.III за декабрь - 16
 января</t>
   </si>
   <si>
-    <t>Код формы
+    <t xml:space="preserve">Код формы
 по ОКУД</t>
   </si>
   <si>
-    <t>0625006</t>
-  </si>
-  <si>
-    <t>Месячная</t>
-  </si>
-  <si>
-    <t>Полное наименование юридического лица: ОТКРЫТОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО "СТРОЙТРЕСТ N 3 ОРДЕНА
+    <t xml:space="preserve">0625006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Месячная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полное наименование юридического лица: ОТКРЫТОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО "СТРОЙТРЕСТ N 3 ОРДЕНА
 ОКТЯБРЬСКОЙ РЕВОЛЮЦИИ"</t>
   </si>
   <si>
-    <t>Полное наименование обособленного подразделения юридического лица: ОТКРЫТОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО
+    <t xml:space="preserve">Полное наименование обособленного подразделения юридического лица: ОТКРЫТОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО
 "СТРОЙТРЕСТ N 3 ОРДЕНА ОКТЯБРЬСКОЙ РЕВОЛЮЦИИ"</t>
   </si>
   <si>
-    <t>Местоположение: 223710, МИНСКАЯ ОБЛАСТЬ, Солигорский, Солигорск, УЛ. КОЗЛОВА, 37</t>
-  </si>
-  <si>
-    <t>Электронный адрес: str3@str3.by</t>
-  </si>
-  <si>
-    <t>Регистрационный номер в статистическом регистре (ОКПО)</t>
-  </si>
-  <si>
-    <t>Учетный номер плательщика (УНП)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>012774946000</t>
-  </si>
-  <si>
-    <t>600122771</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>Стоимость запасов готовой продукции (работ, услуг) в фактических отпускных ценах
+    <t xml:space="preserve">Местоположение: 223710, МИНСКАЯ ОБЛАСТЬ, Солигорский, Солигорск, УЛ. КОЗЛОВА, 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Электронный адрес: str3@str3.by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Регистрационный номер в статистическом регистре (ОКПО)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Учетный номер плательщика (УНП)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012774946000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600122771</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стоимость запасов готовой продукции (работ, услуг) в фактических отпускных ценах
 за вычетом  налогов и сборов, исчисляемых из выручки, на конец периода</t>
   </si>
   <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>из него объем отгруженной инновационной продукции (работ, услуг)</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>Объем отгруженной продукции (работ,услуг) в фактических отпускных ценах за
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из него объем отгруженной инновационной продукции (работ, услуг)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Объем отгруженной продукции (работ,услуг) в фактических отпускных ценах за
 вычетом налогов и сборов, исчисляемых  из выручки, всего</t>
   </si>
   <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>Стоимость переработанного давальческого сырья (не оплаченного
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стоимость переработанного давальческого сырья (не оплаченного
 организацией-изготовителем продукции) в фактических ценах</t>
   </si>
   <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>Объем производства промышленной продукции (работ, услуг) в фактических отпускных
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Объем производства промышленной продукции (работ, услуг) в фактических отпускных
 ценах за вычетом налогов и сборов, исчисляемых из выручки</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Б</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>за
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">за
 соответствующий
 отчетному
 месяц
@@ -159,52 +153,52 @@
 года</t>
   </si>
   <si>
-    <t>за
+    <t xml:space="preserve">за
 предыдущий месяц</t>
   </si>
   <si>
-    <t>за
+    <t xml:space="preserve">за
 отчетный
 месяц</t>
   </si>
   <si>
-    <t>Фактически</t>
-  </si>
-  <si>
-    <t>Код</t>
-  </si>
-  <si>
-    <t>Наименование показателя</t>
-  </si>
-  <si>
-    <t>Раздел 1</t>
-  </si>
-  <si>
-    <t>Основные  показатели промышленной деятельности  организации</t>
+    <t xml:space="preserve">Фактически</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Код</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование показателя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раздел 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основные  показатели промышленной деятельности  организации</t>
   </si>
   <si>
     <t xml:space="preserve">Таблица 1 Таблица 1 </t>
   </si>
   <si>
-    <t>тысяч рублей</t>
-  </si>
-  <si>
-    <t>901</t>
-  </si>
-  <si>
-    <t>По видам экономической деятельности:</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Стоимость переработанного
+    <t xml:space="preserve">тысяч рублей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">По видам экономической деятельности:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стоимость переработанного
 давальческого сырья (не
 оплаченного
 организацией-изготовителем
@@ -214,7 +208,7 @@
 102)</t>
   </si>
   <si>
-    <t>Объем производства
+    <t xml:space="preserve">Объем производства
 промышленной продукции
 (работ, услуг) в фактических
 отпускных ценах за  вычетом
@@ -222,58 +216,58 @@
 из выручки  (код строки 101)</t>
   </si>
   <si>
-    <t>Наименование вида экономической деятельности</t>
-  </si>
-  <si>
-    <t>Раздел 2</t>
-  </si>
-  <si>
-    <t>Сведения о видах экономической деятельности организации</t>
-  </si>
-  <si>
-    <t>Таблица 2 Таблица 2: Заполняется по видам экономической деятельности, входящим в секции B,C,D,E</t>
-  </si>
-  <si>
-    <t>902</t>
-  </si>
-  <si>
-    <t>Вид продукции:</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>В</t>
-  </si>
-  <si>
-    <t>из
+    <t xml:space="preserve">Наименование вида экономической деятельности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раздел 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сведения о видах экономической деятельности организации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 2 Таблица 2: Заполняется по видам экономической деятельности, входящим в секции B,C,D,E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вид продукции:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из
 него
 направлено
 на
@@ -282,42 +276,42 @@
 организации</t>
   </si>
   <si>
-    <t>количество,
+    <t xml:space="preserve">количество,
 всего</t>
   </si>
   <si>
-    <t>за
+    <t xml:space="preserve">за
 предыдущий год</t>
   </si>
   <si>
-    <t>за
+    <t xml:space="preserve">за
 отчетный
 год</t>
   </si>
   <si>
-    <t>за
+    <t xml:space="preserve">за
 отчетный
 год,
 тысяч
 рублей</t>
   </si>
   <si>
-    <t>за соответствующий отчетному
+    <t xml:space="preserve">за соответствующий отчетному
 месяц предыдущего года</t>
   </si>
   <si>
-    <t>за предыдущий месяц</t>
-  </si>
-  <si>
-    <t>за отчетный месяц</t>
-  </si>
-  <si>
-    <t>Товарный выпуск
+    <t xml:space="preserve">за предыдущий месяц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">за отчетный месяц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Товарный выпуск
 продукции,
 количество</t>
   </si>
   <si>
-    <t>Стоимость
+    <t xml:space="preserve">Стоимость
 перер.
 давальч.
 сырья
@@ -328,26 +322,26 @@
 ценах</t>
   </si>
   <si>
-    <t>Фактич. произведено
+    <t xml:space="preserve">Фактич. произведено
 (в факт. отп. ценах
 без налогов и
 сборов, исчисл. из
 выручки</t>
   </si>
   <si>
-    <t>Фактически произведено</t>
-  </si>
-  <si>
-    <t>Ед.измерения</t>
-  </si>
-  <si>
-    <t>Наименование вида продукции</t>
-  </si>
-  <si>
-    <t>Раздел 3</t>
-  </si>
-  <si>
-    <t>Количество и стоимость произведенной промышленной продукции (услуг); (в графах 2, 5 и 8 отраж. данные о продукции, стоимость кот. в дальнейшем вкл. в состав затрат на себестоимость конечной пром продукции).</t>
+    <t xml:space="preserve">Фактически произведено</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ед.измерения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование вида продукции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раздел 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество и стоимость произведенной промышленной продукции (услуг); (в графах 2, 5 и 8 отраж. данные о продукции, стоимость кот. в дальнейшем вкл. в состав затрат на себестоимость конечной пром продукции).</t>
   </si>
   <si>
     <t xml:space="preserve">Таблица 3 Табл.3: Заполняется в соотв. с СК 25.006-2015 "Промышленная продукция", утвержд. Белстатом и размещ. на сайте Белстата www.belstat.gov.by в разделе "Стат. классиф-ры"; гр.11-16 запол-ся в отчете за декабрь (п.76Указаний)                            </t>
@@ -356,7 +350,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>из
+    <t xml:space="preserve">из
 него
 произведено
 из
@@ -364,7 +358,7 @@
 сырья</t>
   </si>
   <si>
-    <t>из
+    <t xml:space="preserve">из
 него
 произведено
 из
@@ -372,7 +366,7 @@
 сырья</t>
   </si>
   <si>
-    <t>Запасы
+    <t xml:space="preserve">Запасы
 готовой
 продукции
 на
@@ -387,76 +381,76 @@
 сырья)</t>
   </si>
   <si>
-    <t>за
+    <t xml:space="preserve">за
 предыдущий год, тысяч
 рублей</t>
   </si>
   <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>Благодарим за представленную информацию!</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>Пожалуйста,  поставьте "1" в   соответствующей графе</t>
-  </si>
-  <si>
-    <t>16-40
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Благодарим за представленную информацию!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пожалуйста,  поставьте "1" в   соответствующей графе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-40
 часов</t>
   </si>
   <si>
-    <t>8-16 часов</t>
-  </si>
-  <si>
-    <t>4-8 часов</t>
-  </si>
-  <si>
-    <t>2-4 часа</t>
-  </si>
-  <si>
-    <t>1-2 часа</t>
-  </si>
-  <si>
-    <t>до 1 часа</t>
-  </si>
-  <si>
-    <t>Время, затраченное на заполнение отчета, часов</t>
-  </si>
-  <si>
-    <t>Наименование</t>
-  </si>
-  <si>
-    <t>Раздел 90</t>
-  </si>
-  <si>
-    <t>Отменен</t>
-  </si>
-  <si>
-    <t>Таблица 96 Отменена</t>
-  </si>
-  <si>
-    <t>более
+    <t xml:space="preserve">8-16 часов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-8 часов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-4 часа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2 часа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">до 1 часа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время, затраченное на заполнение отчета, часов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раздел 90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отменен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 96 Отменена</t>
+  </si>
+  <si>
+    <t xml:space="preserve">более
 40
 часов</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>БЛАГОДАРИМ ЗА ПРЕДОСТАВЛЕННУЮ ИНФОРМАЦИЮ!</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>Пожалуйста, укажите одну или несколько причин, проставив "1" в соответствующей
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЛАГОДАРИМ ЗА ПРЕДОСТАВЛЕННУЮ ИНФОРМАЦИЮ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пожалуйста, укажите одну или несколько причин, проставив "1" в соответствующей
 графе</t>
   </si>
   <si>
-    <t>Наличие
+    <t xml:space="preserve">Наличие
 структурных
 подразделений
 на
@@ -464,7 +458,7 @@
 территориях</t>
   </si>
   <si>
-    <t>В
+    <t xml:space="preserve">В
 первичных
 учетных
 документах
@@ -473,43 +467,44 @@
 информация</t>
   </si>
   <si>
-    <t>Сложная
+    <t xml:space="preserve">Сложная
 методология
 расчета
 показателей</t>
   </si>
   <si>
-    <t>Таблица 98 Отменена</t>
-  </si>
-  <si>
-    <t>Лицо, ответственное за составление и представление
+    <t xml:space="preserve">Таблица 98 Отменена</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лицо, ответственное за составление и представление
 первичных статистических данных</t>
   </si>
   <si>
-    <t>(должность)</t>
-  </si>
-  <si>
-    <t>(подпись)</t>
-  </si>
-  <si>
-    <t>(инициалы, фамилия)</t>
-  </si>
-  <si>
-    <t>(фамилия, собственное имя, отчество контактного
+    <t xml:space="preserve">(должность)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(подпись)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(инициалы, фамилия)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(фамилия, собственное имя, отчество контактного
 лица, номер телефона, адрес электронной почты)</t>
   </si>
   <si>
-    <t>(дата составления государственной
+    <t xml:space="preserve">(дата составления государственной
 статистической отчетности)</t>
   </si>
   <si>
-    <t>Отчет о производстве промышленной продукции (работ, услуг)  за</t>
+    <t xml:space="preserve">Отчет о производстве промышленной продукции (работ, услуг)  за</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -915,11 +910,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1221,8 +1216,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
@@ -1527,8 +1522,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10:E14"/>
@@ -1688,8 +1683,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -1856,8 +1851,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:S1"/>
@@ -2244,8 +2239,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I1"/>
@@ -2451,8 +2446,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17:A18"/>
